--- a/TestTask_IDENT/Test-Keys_IDENT(Client_page).xlsx
+++ b/TestTask_IDENT/Test-Keys_IDENT(Client_page).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Practice\QA-Artifacts\TestTask_IDENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3AB6-4982-45B7-B221-CEB858EC477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5278A570-F844-4D28-B576-3732604CB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -374,6 +374,54 @@
   </si>
   <si>
     <t>Осуществляется переход на страницу портала "New Cult"</t>
+  </si>
+  <si>
+    <t>Тело страницы</t>
+  </si>
+  <si>
+    <t>Текстовая информация находится в центральной верхней части страницы, под шапкой сайта.  Ображается корректно и как элемент интерфейса не содержит изъянов</t>
+  </si>
+  <si>
+    <t>Интерактивная карта регионов</t>
+  </si>
+  <si>
+    <t>1. Осмотреть интерактивную карту. 2. Провести курсором по всем активным элементам: кнопкам выбора регионов. 3. Прокликать некоторые из них</t>
+  </si>
+  <si>
+    <t>Интерактивная карта регионов находится в центральной части страницы, над блоком сворачиваемых списков партнёров по регионам. Она представляет из себя карту России и некоторых соседних стран. Карта разделена на регионы, в соответсвии их географическим расположением. Каждый из них представляет из себя кнопку, выделяемую при наведении. При нажатии на регион, открывается список партнёров из блока и осуществляется переход к нему.</t>
+  </si>
+  <si>
+    <t>Блок расположен по центру страницы и начинается сразу под интерактивной картой. Представляется из себя список широких кнопок, содержащих название региона, надпись "Развернуть" и количество партнёров в нём. При наведении на кнопку курсор превращается в указатель. При нажатии кнопка разворачивается в список.</t>
+  </si>
+  <si>
+    <t>Рразвёрнутый список партнёров в регионе</t>
+  </si>
+  <si>
+    <t>1. Выбрать кнопку региона в списке партнёров. 2. Кликнуть по ней.</t>
+  </si>
+  <si>
+    <t>1. Осмотреть блок. 2. Провести курсором по активным элементам. 3. Кликнуть на любой из них</t>
+  </si>
+  <si>
+    <t>1. Осмотреть список. 2. Проврить переход по ссылкам. 3. Проверить соответвие количесва парнёров числу на кнопке</t>
+  </si>
+  <si>
+    <t>Кнопка превращается в шапку списка. Надпись развернуть, превращается в "свернуть". Элементы в списке раполагаются друг над другом. Каждый пункт содержит логотип (если имеется), краткую информацио о патнёре и ссылку на его сайт. При клике на ссылку, осуществляется переход к сайту. Число элементов в списке, соответствет числу в шапке списка. При нажатии на шапку, список сворачивается обратно в кнопку</t>
+  </si>
+  <si>
+    <t>Блок сворачиваемых списков партнёров по регионам (списки свёрнуты)</t>
+  </si>
+  <si>
+    <t>Баннер загрузки демоверсии</t>
+  </si>
+  <si>
+    <t>Баннер расположен в правой верхней части страницы, под шапкой. Содержит изображение, текст и кнопку "Загрузить". При скролле вниз, он прилипает к верхней границе экрана и фиксируется на своём месте. При наведении на кнопку, она подсвечивается. При нажатии на неё, открывается модальное окно с формой, для загрузки демоверсии</t>
+  </si>
+  <si>
+    <t>1. Осмотреть баннер. 2. Проскроллить страницу вниз. 3. Провести курсором по кнопке. 4. Кликнуть по кнопке</t>
+  </si>
+  <si>
+    <t>Модальное окно загрузки демоверсии</t>
   </si>
 </sst>
 </file>
@@ -673,18 +721,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,28 +831,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,11 +840,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -738,104 +870,41 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,2279 +1127,2378 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="8" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="51" style="25" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10" style="25" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="12.5703125" style="25"/>
+    <col min="1" max="1" width="4" style="13" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="51" style="8" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="24" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="24" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="24" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="24" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="27">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="27">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="27">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="27">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
+      <c r="A24" s="27">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="27">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="27">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="27">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+      <c r="A33" s="27">
         <v>9</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="27">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="27">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
+      <c r="A40" s="27">
         <v>12</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37">
+      <c r="A44" s="27">
         <v>13</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
+      <c r="A48" s="27">
         <v>14</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
+      <c r="A50" s="27">
         <v>15</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="37">
+      <c r="A52" s="27">
         <v>16</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37">
+      <c r="A54" s="27">
         <v>17</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="37">
+      <c r="A56" s="27">
         <v>18</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="37">
+      <c r="A58" s="27">
         <v>19</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37">
+      <c r="A60" s="27">
         <v>20</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="37">
+      <c r="A62" s="27">
         <v>21</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37">
+      <c r="A64" s="27">
         <v>22</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="37">
+      <c r="A66" s="27">
         <v>23</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+      <c r="A68" s="24">
         <v>24</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="37">
+      <c r="A71" s="27">
         <v>25</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
+      <c r="A73" s="24">
         <v>26</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="37">
+      <c r="A75" s="27">
         <v>27</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="37">
+      <c r="A77" s="27">
         <v>28</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37">
+      <c r="A80" s="27">
         <v>29</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="37">
+      <c r="A82" s="27">
         <v>30</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="48">
+      <c r="A85" s="23">
         <v>31</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54">
+      <c r="A89" s="18">
         <v>32</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="53"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="I91" s="23"/>
+      <c r="A91" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="54"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="I92" s="23"/>
+      <c r="A92" s="58">
+        <v>33</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="I95" s="23"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="I96" s="23"/>
-    </row>
-    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="I97" s="23"/>
-    </row>
-    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="I98" s="23"/>
-    </row>
-    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="I99" s="23"/>
-    </row>
-    <row r="100" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="I100" s="23"/>
-    </row>
-    <row r="101" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="I101" s="23"/>
-    </row>
-    <row r="102" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="I102" s="23"/>
-    </row>
-    <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="I103" s="23"/>
-    </row>
-    <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="I104" s="23"/>
-    </row>
-    <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="I105" s="23"/>
-    </row>
-    <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="I106" s="23"/>
-    </row>
-    <row r="107" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="I107" s="23"/>
-    </row>
-    <row r="108" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="I108" s="23"/>
-    </row>
-    <row r="109" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="I109" s="23"/>
-    </row>
-    <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="I110" s="23"/>
-    </row>
-    <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="I111" s="23"/>
-    </row>
-    <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="I112" s="23"/>
-    </row>
-    <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="I113" s="23"/>
-    </row>
-    <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="I114" s="23"/>
-    </row>
-    <row r="115" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="I115" s="23"/>
-    </row>
-    <row r="116" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="I116" s="23"/>
-    </row>
-    <row r="117" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="I117" s="23"/>
-    </row>
-    <row r="118" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="I118" s="23"/>
-    </row>
-    <row r="119" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="I119" s="23"/>
-    </row>
-    <row r="120" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="I120" s="23"/>
-    </row>
-    <row r="121" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="I121" s="23"/>
-    </row>
-    <row r="122" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="I122" s="23"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="I123" s="23"/>
-    </row>
-    <row r="124" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="I124" s="23"/>
-    </row>
-    <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="I125" s="23"/>
-    </row>
-    <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="I126" s="23"/>
-    </row>
-    <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="I127" s="23"/>
-    </row>
-    <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="I128" s="23"/>
-    </row>
-    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="I129" s="23"/>
-    </row>
-    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="I130" s="23"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="I131" s="23"/>
-    </row>
-    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="I132" s="23"/>
-    </row>
-    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="I133" s="23"/>
-    </row>
-    <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="I134" s="23"/>
-    </row>
-    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="I135" s="23"/>
-    </row>
-    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="I136" s="23"/>
-    </row>
-    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="I137" s="23"/>
-    </row>
-    <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="I138" s="23"/>
-    </row>
-    <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="I139" s="23"/>
-    </row>
-    <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="I140" s="23"/>
-    </row>
-    <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="I141" s="23"/>
-    </row>
-    <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="I142" s="23"/>
-    </row>
-    <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="I143" s="23"/>
-    </row>
-    <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="I144" s="23"/>
+      <c r="A96" s="55">
+        <v>34</v>
+      </c>
+      <c r="B96" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="55"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="55"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="55"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="55"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="55"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="55"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="55"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="55"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="55">
+        <v>35</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="55"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="55"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="55"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="55"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="55"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="55"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="55">
+        <v>36</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="55"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="55"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="55"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="55"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="55"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="55"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="55"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="55"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="44">
+        <v>37</v>
+      </c>
+      <c r="B121" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="44"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="44"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="44"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="44"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="44"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="44"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="44"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="54"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="I144" s="6"/>
     </row>
     <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="I145" s="23"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="I145" s="6"/>
     </row>
     <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="I146" s="23"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="I146" s="6"/>
     </row>
     <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="I147" s="23"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="I147" s="6"/>
     </row>
     <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="I148" s="23"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="I148" s="6"/>
     </row>
     <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="23"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="I149" s="6"/>
     </row>
     <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="I150" s="6"/>
     </row>
     <row r="151" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="23"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="I151" s="6"/>
     </row>
     <row r="152" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="I152" s="23"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="I152" s="6"/>
     </row>
     <row r="153" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="I153" s="23"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="I153" s="6"/>
     </row>
     <row r="154" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="I154" s="23"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="I154" s="6"/>
     </row>
     <row r="155" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="I155" s="23"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="I155" s="6"/>
     </row>
     <row r="156" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="I156" s="23"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="I156" s="6"/>
     </row>
     <row r="157" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="I157" s="23"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="I157" s="6"/>
     </row>
     <row r="158" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="I158" s="23"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="I158" s="6"/>
     </row>
     <row r="159" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="I159" s="23"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="I159" s="6"/>
     </row>
     <row r="160" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="I160" s="6"/>
     </row>
     <row r="161" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="I161" s="6"/>
     </row>
     <row r="162" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="I162" s="23"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="I162" s="6"/>
     </row>
     <row r="163" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="I163" s="23"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="I163" s="6"/>
     </row>
     <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="23"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="I164" s="23"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="I164" s="6"/>
     </row>
     <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="I165" s="23"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="I165" s="6"/>
     </row>
     <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="I166" s="23"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="I166" s="6"/>
     </row>
     <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="23"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="I167" s="23"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="I167" s="6"/>
     </row>
     <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="23"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="I168" s="23"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="I168" s="6"/>
     </row>
     <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="I169" s="23"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="I169" s="6"/>
     </row>
     <row r="170" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="I170" s="23"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="I170" s="6"/>
     </row>
     <row r="171" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="I171" s="23"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="I171" s="6"/>
     </row>
     <row r="172" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="I172" s="23"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="I172" s="6"/>
     </row>
     <row r="173" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="I173" s="23"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="I173" s="6"/>
     </row>
     <row r="174" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="I174" s="23"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="I174" s="6"/>
     </row>
     <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="I175" s="23"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="I175" s="6"/>
     </row>
     <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="23"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
-      <c r="I176" s="23"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="I176" s="6"/>
     </row>
     <row r="177" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="I177" s="6"/>
     </row>
     <row r="178" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="I178" s="6"/>
     </row>
     <row r="179" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="23"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="I179" s="23"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="I179" s="6"/>
     </row>
     <row r="180" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="I180" s="23"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="I180" s="6"/>
     </row>
     <row r="181" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="23"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
-      <c r="I181" s="23"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="I181" s="6"/>
     </row>
     <row r="182" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="I182" s="23"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="I182" s="6"/>
     </row>
     <row r="183" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="23"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
-      <c r="I183" s="23"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="I183" s="6"/>
     </row>
     <row r="184" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="23"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="23"/>
-      <c r="I184" s="23"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="I184" s="6"/>
     </row>
     <row r="185" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="23"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
-      <c r="I185" s="23"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="I185" s="6"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="23"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
-      <c r="I186" s="23"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="I186" s="6"/>
     </row>
     <row r="187" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-      <c r="I187" s="23"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="I187" s="6"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
-      <c r="I188" s="23"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="I188" s="6"/>
     </row>
     <row r="189" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
-      <c r="I189" s="23"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="I189" s="6"/>
     </row>
     <row r="190" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
-      <c r="I190" s="23"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="I190" s="6"/>
     </row>
     <row r="191" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="23"/>
-      <c r="I191" s="23"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="I191" s="6"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
-      <c r="I192" s="23"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="I192" s="6"/>
     </row>
     <row r="193" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="I193" s="23"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="I193" s="6"/>
     </row>
     <row r="194" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23"/>
-      <c r="I194" s="23"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="I194" s="6"/>
     </row>
     <row r="195" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-      <c r="I195" s="23"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="I195" s="6"/>
     </row>
     <row r="196" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
-      <c r="I196" s="23"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="I196" s="6"/>
     </row>
     <row r="197" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
-      <c r="I197" s="23"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="I197" s="6"/>
     </row>
     <row r="198" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="23"/>
-      <c r="I198" s="23"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="I198" s="6"/>
     </row>
     <row r="199" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-      <c r="I199" s="23"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="I199" s="6"/>
     </row>
     <row r="200" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="23"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="I200" s="6"/>
     </row>
     <row r="201" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="23"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="I201" s="6"/>
     </row>
     <row r="202" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="23"/>
-      <c r="C202" s="23"/>
-      <c r="D202" s="23"/>
-      <c r="E202" s="23"/>
-      <c r="I202" s="23"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="I202" s="6"/>
     </row>
     <row r="203" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="23"/>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="I203" s="23"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="I203" s="6"/>
     </row>
     <row r="204" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="23"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="23"/>
-      <c r="E204" s="23"/>
-      <c r="I204" s="23"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="I204" s="6"/>
     </row>
     <row r="205" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="23"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23"/>
-      <c r="E205" s="23"/>
-      <c r="I205" s="23"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="I205" s="6"/>
     </row>
     <row r="206" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="23"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23"/>
-      <c r="E206" s="23"/>
-      <c r="I206" s="23"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="I206" s="6"/>
     </row>
     <row r="207" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="23"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23"/>
-      <c r="I207" s="23"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="I207" s="6"/>
     </row>
     <row r="208" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="23"/>
-      <c r="C208" s="23"/>
-      <c r="D208" s="23"/>
-      <c r="E208" s="23"/>
-      <c r="I208" s="23"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="I208" s="6"/>
     </row>
     <row r="209" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="23"/>
-      <c r="C209" s="23"/>
-      <c r="D209" s="23"/>
-      <c r="E209" s="23"/>
-      <c r="I209" s="23"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="I209" s="6"/>
     </row>
     <row r="210" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="23"/>
-      <c r="C210" s="23"/>
-      <c r="D210" s="23"/>
-      <c r="E210" s="23"/>
-      <c r="I210" s="23"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="I210" s="6"/>
     </row>
     <row r="211" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="23"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="23"/>
-      <c r="E211" s="23"/>
-      <c r="I211" s="23"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="I211" s="6"/>
     </row>
     <row r="212" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="23"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="23"/>
-      <c r="I212" s="23"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="I212" s="6"/>
     </row>
     <row r="213" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="23"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="I213" s="23"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="I213" s="6"/>
     </row>
     <row r="214" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
-      <c r="D214" s="23"/>
-      <c r="E214" s="23"/>
-      <c r="I214" s="23"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="I214" s="6"/>
     </row>
     <row r="215" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="23"/>
-      <c r="C215" s="23"/>
-      <c r="D215" s="23"/>
-      <c r="E215" s="23"/>
-      <c r="I215" s="23"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="I215" s="6"/>
     </row>
     <row r="216" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="23"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="I216" s="23"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="I216" s="6"/>
     </row>
     <row r="217" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="23"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="I217" s="23"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="I217" s="6"/>
     </row>
     <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="I218" s="23"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="I218" s="6"/>
     </row>
     <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="23"/>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="I219" s="23"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="I219" s="6"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="23"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
-      <c r="I220" s="23"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="I220" s="6"/>
     </row>
     <row r="221" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="222" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4113,101 +4281,84 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="A26:A28"/>
+  <mergeCells count="202">
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="E112:E120"/>
+    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="E121:E128"/>
+    <mergeCell ref="D121:D128"/>
+    <mergeCell ref="C121:C128"/>
+    <mergeCell ref="B121:B128"/>
+    <mergeCell ref="A121:A128"/>
+    <mergeCell ref="E96:E104"/>
+    <mergeCell ref="D96:D104"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4225,24 +4376,35 @@
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -4252,43 +4414,76 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A85:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TestTask_IDENT/Test-Keys_IDENT(Client_page).xlsx
+++ b/TestTask_IDENT/Test-Keys_IDENT(Client_page).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Practice\QA-Artifacts\TestTask_IDENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5278A570-F844-4D28-B576-3732604CB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E60EB9-B806-48AA-88A3-5362FCE1BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -422,6 +422,75 @@
   </si>
   <si>
     <t>Модальное окно загрузки демоверсии</t>
+  </si>
+  <si>
+    <t>Форма загрузки демоверсии</t>
+  </si>
+  <si>
+    <t>Открыто модальное окно загрузки демоверсии</t>
+  </si>
+  <si>
+    <t>1. Осмотреть форму загрузки. 2. Оставить все поля пустыми. 3. Нажать на кнопку "Отмена"</t>
+  </si>
+  <si>
+    <t>Форма загрузки демоверсии состоит из трёх полей: "Имя", "Телефон" и "Электронная почта". Названия полей выполнены в едином стиле и имеют одинаковый размер. Внизу, под формой имеются две кнопки "Загрузить" и "Отмена". При нажатии на кнопку "Отмена", модальное окно закрывается</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что не заполнены необходимые поля формы</t>
+  </si>
+  <si>
+    <t>1. Оставить все поля пустыми. 2. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>1. Заполнить все поля корректными данными. 2. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Начинается загрузка файла с демоверсией продукта. Появляется уведомление об отправке на почту письма с подтверждением почтового ящика</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля корректными данными. 2. Поле "Телефон" оставить пустым. 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что не заполнено поле номера телефона</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля корректными данными. 2. Поле "Имя" оставить пустым. 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что не заполнено поле с именем</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля корректными данными. 2. Поле "Электронная почта" оставить пустым. 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что не заполнено поле электронной почты</t>
+  </si>
+  <si>
+    <t>1. Поле "Имя" заполнить некорректным значением (недопустимые символы). 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что поле "Имя" заполнено некорректно</t>
+  </si>
+  <si>
+    <t>1. Поле "Телефон" заполнить некорректным значением. 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что поле "Телефон" заполнено некорректно</t>
+  </si>
+  <si>
+    <t>Появляется ошибка, сообщающая о том, что поле "Электроная почта" заполнено некорректно</t>
+  </si>
+  <si>
+    <t>1. Поле "Электронная почта" заполнить некорректным значением (например без "@"). 3. Нажать на кнопку "Загрузить"</t>
+  </si>
+  <si>
+    <t>Выс.</t>
+  </si>
+  <si>
+    <t>Низ.</t>
+  </si>
+  <si>
+    <t>Сред.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +577,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,162 +602,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,204 +639,173 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,2378 +1028,2651 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <pane ySplit="8" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158:D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="13" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="51" style="8" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="12.5703125" style="8"/>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="48" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="48" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+      <c r="A24" s="8">
         <v>5</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="A26" s="8">
         <v>6</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+      <c r="A29" s="8">
         <v>7</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
+      <c r="A31" s="8">
         <v>8</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27">
+      <c r="A33" s="8">
         <v>9</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="A35" s="8">
         <v>10</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27">
+      <c r="A37" s="8">
         <v>11</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="A40" s="8">
         <v>12</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27">
+      <c r="A44" s="8">
         <v>13</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27">
+      <c r="A48" s="8">
         <v>14</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
+      <c r="A50" s="8">
         <v>15</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
+      <c r="A52" s="8">
         <v>16</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27">
+      <c r="A54" s="8">
         <v>17</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27">
+      <c r="A56" s="8">
         <v>18</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27">
+      <c r="A58" s="8">
         <v>19</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27">
+      <c r="A60" s="8">
         <v>20</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27">
+      <c r="A62" s="8">
         <v>21</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27">
+      <c r="A64" s="8">
         <v>22</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27">
+      <c r="A66" s="8">
         <v>23</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24">
+      <c r="A68" s="7">
         <v>24</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27">
+      <c r="A71" s="8">
         <v>25</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+      <c r="A73" s="7">
         <v>26</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27">
+      <c r="A75" s="8">
         <v>27</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27">
+      <c r="A77" s="8">
         <v>28</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27">
+      <c r="A80" s="8">
         <v>29</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27">
+      <c r="A82" s="8">
         <v>30</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23">
+      <c r="A85" s="8">
         <v>31</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="15"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="G87" s="26"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="15"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="G88" s="27"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
+      <c r="A89" s="5">
         <v>32</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="15"/>
+      <c r="G89" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="15"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="35"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="58">
+      <c r="A92" s="8">
         <v>33</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I92" s="6"/>
+      <c r="G92" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="59"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="I93" s="6"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="36"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="59"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="I94" s="6"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="36"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="59"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="I95" s="6"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="G95" s="35"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="55">
+      <c r="A96" s="5">
         <v>34</v>
       </c>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="60" t="s">
+      <c r="D96" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="60" t="s">
+      <c r="E96" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I96" s="6"/>
+      <c r="G96" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="55"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="I97" s="6"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="G97" s="38"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="I98" s="6"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="G98" s="38"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="55"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="I99" s="6"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="G99" s="38"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="I100" s="6"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="G100" s="38"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="I101" s="6"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="G101" s="38"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="55"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="I102" s="6"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="G102" s="38"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="55"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="I103" s="6"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="G103" s="38"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="55"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="I104" s="6"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="G104" s="39"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="55">
+      <c r="A105" s="5">
         <v>35</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E105" s="60" t="s">
+      <c r="E105" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I105" s="6"/>
+      <c r="G105" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="I106" s="6"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="G106" s="38"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="I107" s="6"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="G107" s="38"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="I108" s="6"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="G108" s="38"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="55"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="I109" s="6"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="G109" s="38"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="55"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="I110" s="6"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="G110" s="38"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="55"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="I111" s="6"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="G111" s="39"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="55">
+      <c r="A112" s="5">
         <v>36</v>
       </c>
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="60" t="s">
+      <c r="C112" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="60" t="s">
+      <c r="D112" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E112" s="60" t="s">
+      <c r="E112" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I112" s="6"/>
+      <c r="G112" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="55"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="I113" s="6"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="G113" s="38"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="55"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="I114" s="6"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="G114" s="38"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="I115" s="6"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="G115" s="38"/>
+      <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="I116" s="6"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="G116" s="38"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="55"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="I117" s="6"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="G117" s="38"/>
+      <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
-      <c r="I118" s="6"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="G118" s="38"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="I119" s="6"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="G119" s="38"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="I120" s="6"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="G120" s="39"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="44">
+      <c r="A121" s="9">
         <v>37</v>
       </c>
-      <c r="B121" s="61" t="s">
+      <c r="B121" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="60" t="s">
+      <c r="C121" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="61" t="s">
+      <c r="D121" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E121" s="61" t="s">
+      <c r="E121" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I121" s="6"/>
+      <c r="G121" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="44"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
-      <c r="I122" s="6"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="G122" s="38"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="44"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="61"/>
-      <c r="E123" s="61"/>
-      <c r="I123" s="6"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="G123" s="38"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="44"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="I124" s="6"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="G124" s="38"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="44"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="I125" s="6"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="38"/>
+      <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="44"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="I126" s="6"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="38"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="44"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="I127" s="6"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="G127" s="38"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="44"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="I128" s="6"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="G128" s="39"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="54"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="A130" s="5">
+        <v>38</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G130" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="G131" s="38"/>
+      <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="G132" s="38"/>
+      <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="G133" s="38"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="G134" s="38"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="G135" s="38"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="G136" s="39"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="A137" s="9">
+        <v>39</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="G138" s="41"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="A139" s="5">
+        <v>40</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G139" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="G140" s="38"/>
+      <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="G141" s="38"/>
+      <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="G142" s="39"/>
+      <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="A143" s="5">
+        <v>41</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G143" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="I145" s="6"/>
-    </row>
-    <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="I147" s="6"/>
-    </row>
-    <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="I149" s="6"/>
-    </row>
-    <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="I150" s="6"/>
-    </row>
-    <row r="151" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="I151" s="6"/>
-    </row>
-    <row r="152" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="I152" s="6"/>
-    </row>
-    <row r="153" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="I153" s="6"/>
-    </row>
-    <row r="154" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="I154" s="6"/>
-    </row>
-    <row r="155" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="I155" s="6"/>
-    </row>
-    <row r="156" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="I156" s="6"/>
-    </row>
-    <row r="157" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="I157" s="6"/>
-    </row>
-    <row r="158" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="I158" s="6"/>
-    </row>
-    <row r="159" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="I159" s="6"/>
-    </row>
-    <row r="160" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="I160" s="6"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="G144" s="42"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="G145" s="41"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>42</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G146" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="G147" s="42"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="G148" s="41"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>43</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G149" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="G150" s="42"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="G151" s="41"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>44</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G152" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="G153" s="42"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="G154" s="41"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>45</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G155" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="G156" s="42"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="G157" s="41"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>46</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G158" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="G159" s="42"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="G160" s="41"/>
+      <c r="I160" s="2"/>
     </row>
     <row r="161" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="I161" s="6"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="I162" s="6"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="I163" s="6"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="I164" s="6"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="I165" s="6"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="I165" s="2"/>
     </row>
     <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="I166" s="6"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="I167" s="6"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="I168" s="6"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="I169" s="6"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="I170" s="6"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="I171" s="6"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="I172" s="6"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="I173" s="6"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="I174" s="6"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="I174" s="2"/>
     </row>
     <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="I175" s="6"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="I175" s="2"/>
     </row>
     <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="I176" s="6"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="I177" s="6"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="I177" s="2"/>
     </row>
     <row r="178" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="I178" s="6"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="I178" s="2"/>
     </row>
     <row r="179" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="I179" s="6"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="I179" s="2"/>
     </row>
     <row r="180" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="I180" s="6"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="I180" s="2"/>
     </row>
     <row r="181" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="I181" s="6"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="I181" s="2"/>
     </row>
     <row r="182" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="I182" s="6"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="I183" s="6"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="I183" s="2"/>
     </row>
     <row r="184" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="I184" s="6"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="I184" s="2"/>
     </row>
     <row r="185" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="I185" s="6"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="I186" s="6"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="I186" s="2"/>
     </row>
     <row r="187" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="I187" s="6"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="I187" s="2"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="I188" s="6"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="I188" s="2"/>
     </row>
     <row r="189" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="I189" s="6"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="I189" s="2"/>
     </row>
     <row r="190" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="I190" s="6"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="I190" s="2"/>
     </row>
     <row r="191" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="I191" s="6"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="I191" s="2"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="I192" s="6"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="I192" s="2"/>
     </row>
     <row r="193" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="I193" s="6"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="I193" s="2"/>
     </row>
     <row r="194" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="I194" s="6"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="I194" s="2"/>
     </row>
     <row r="195" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="I195" s="6"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="I196" s="6"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="I197" s="6"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="I198" s="6"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="I199" s="6"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="I200" s="6"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="I201" s="6"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="I202" s="6"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="I203" s="6"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="I204" s="6"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="I205" s="6"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="I206" s="6"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="I207" s="6"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="I208" s="6"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="I209" s="6"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="I210" s="6"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="I211" s="6"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="I212" s="6"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="I213" s="6"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="I214" s="6"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="I215" s="6"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="I216" s="6"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="I217" s="6"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="I218" s="6"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="I219" s="6"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="I220" s="6"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="222" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4281,113 +4455,153 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="E112:E120"/>
-    <mergeCell ref="D112:D120"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="A112:A120"/>
-    <mergeCell ref="E121:E128"/>
-    <mergeCell ref="D121:D128"/>
-    <mergeCell ref="C121:C128"/>
-    <mergeCell ref="B121:B128"/>
-    <mergeCell ref="A121:A128"/>
-    <mergeCell ref="E96:E104"/>
-    <mergeCell ref="D96:D104"/>
-    <mergeCell ref="C96:C104"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A91:I91"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
+  <mergeCells count="293">
+    <mergeCell ref="G130:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="G143:G145"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="G149:G151"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="G155:G157"/>
+    <mergeCell ref="G158:G160"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="G96:G104"/>
+    <mergeCell ref="G105:G111"/>
+    <mergeCell ref="G112:G120"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="E130:E136"/>
+    <mergeCell ref="D130:D136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="A56:A57"/>
@@ -4412,8 +4626,94 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A92:A95"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
@@ -4427,63 +4727,28 @@
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E96:E104"/>
+    <mergeCell ref="D96:D104"/>
+    <mergeCell ref="C96:C104"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="E112:E120"/>
+    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="E121:E128"/>
+    <mergeCell ref="D121:D128"/>
+    <mergeCell ref="C121:C128"/>
+    <mergeCell ref="B121:B128"/>
+    <mergeCell ref="A121:A128"/>
+    <mergeCell ref="G121:G128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
